--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tac1-Tacr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tac1-Tacr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2635296666666667</v>
+        <v>0.015498</v>
       </c>
       <c r="N2">
-        <v>0.790589</v>
+        <v>0.046494</v>
       </c>
       <c r="O2">
-        <v>0.8711810916031123</v>
+        <v>0.2487028339734469</v>
       </c>
       <c r="P2">
-        <v>0.8711810916031124</v>
+        <v>0.2487028339734469</v>
       </c>
       <c r="Q2">
-        <v>0.1681306975282222</v>
+        <v>0.009887651676</v>
       </c>
       <c r="R2">
-        <v>1.513176277754</v>
+        <v>0.088988865084</v>
       </c>
       <c r="S2">
-        <v>0.8711810916031123</v>
+        <v>0.2487028339734469</v>
       </c>
       <c r="T2">
-        <v>0.8711810916031124</v>
+        <v>0.2487028339734469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,10 +620,10 @@
         <v>0.116902</v>
       </c>
       <c r="O3">
-        <v>0.1288189083968877</v>
+        <v>0.62532496014892</v>
       </c>
       <c r="P3">
-        <v>0.1288189083968877</v>
+        <v>0.62532496014892</v>
       </c>
       <c r="Q3">
         <v>0.02486097681911111</v>
@@ -629,10 +632,72 @@
         <v>0.223748791372</v>
       </c>
       <c r="S3">
-        <v>0.1288189083968877</v>
+        <v>0.62532496014892</v>
       </c>
       <c r="T3">
-        <v>0.1288189083968877</v>
+        <v>0.62532496014892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.6379953333333334</v>
+      </c>
+      <c r="H4">
+        <v>1.913986</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.007850000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.02355</v>
+      </c>
+      <c r="O4">
+        <v>0.1259722058776331</v>
+      </c>
+      <c r="P4">
+        <v>0.1259722058776331</v>
+      </c>
+      <c r="Q4">
+        <v>0.005008263366666667</v>
+      </c>
+      <c r="R4">
+        <v>0.0450743703</v>
+      </c>
+      <c r="S4">
+        <v>0.1259722058776331</v>
+      </c>
+      <c r="T4">
+        <v>0.1259722058776331</v>
       </c>
     </row>
   </sheetData>
